--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\Fracciones con Cierre Trimestral\Actualización de Fracciones Cierre Presupuestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +179,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de octubre del año en curso.</t>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+  </si>
+  <si>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,13 +214,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,8 +271,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -270,23 +292,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,21 +592,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.140625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -590,38 +615,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -682,17 +707,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -723,7 +748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2020</v>
       </c>
@@ -733,20 +758,22 @@
       <c r="C8" s="4">
         <v>44104</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="G8" s="6">
+        <v>44120</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44120</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -758,17 +785,20 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD163"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +895,151 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>34164008</v>
+      </c>
+      <c r="E4">
+        <v>-7427459.6400000006</v>
+      </c>
+      <c r="F4">
+        <v>26736548.359999999</v>
+      </c>
+      <c r="G4">
+        <v>26736548.359999999</v>
+      </c>
+      <c r="H4">
+        <v>26736548.359999999</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>3073674</v>
+      </c>
+      <c r="E5">
+        <v>-2520478.5499999998</v>
+      </c>
+      <c r="F5">
+        <v>553195.44999999995</v>
+      </c>
+      <c r="G5">
+        <v>553195.44999999995</v>
+      </c>
+      <c r="H5">
+        <v>555399.44999999995</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>7130100</v>
+      </c>
+      <c r="E6">
+        <v>-3943139.98</v>
+      </c>
+      <c r="F6">
+        <v>3186960.02</v>
+      </c>
+      <c r="G6">
+        <v>3186960.02</v>
+      </c>
+      <c r="H6">
+        <v>3197760.01</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>154750</v>
+      </c>
+      <c r="E7">
+        <v>-154750</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>190000</v>
+      </c>
+      <c r="E8">
+        <v>-101711.82</v>
+      </c>
+      <c r="F8">
+        <v>88288.18</v>
+      </c>
+      <c r="G8">
+        <v>88288.18</v>
+      </c>
+      <c r="H8">
+        <v>88288.18</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\Fracciones con Cierre Trimestral\Actualización de Fracciones Cierre Presupuestal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -179,29 +179,14 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
-  </si>
-  <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -214,19 +199,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -271,32 +250,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -310,8 +285,7 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,11 +576,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -615,38 +589,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -707,73 +681,71 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44206</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44206</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6">
-        <v>44120</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44120</v>
-      </c>
-      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -785,20 +757,17 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,177 +836,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>34164008</v>
-      </c>
-      <c r="E4">
-        <v>-7427459.6400000006</v>
-      </c>
-      <c r="F4">
-        <v>26736548.359999999</v>
-      </c>
-      <c r="G4">
-        <v>26736548.359999999</v>
-      </c>
-      <c r="H4">
-        <v>26736548.359999999</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>3073674</v>
-      </c>
-      <c r="E5">
-        <v>-2520478.5499999998</v>
-      </c>
-      <c r="F5">
-        <v>553195.44999999995</v>
-      </c>
-      <c r="G5">
-        <v>553195.44999999995</v>
-      </c>
-      <c r="H5">
-        <v>555399.44999999995</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>7130100</v>
-      </c>
-      <c r="E6">
-        <v>-3943139.98</v>
-      </c>
-      <c r="F6">
-        <v>3186960.02</v>
-      </c>
-      <c r="G6">
-        <v>3186960.02</v>
-      </c>
-      <c r="H6">
-        <v>3197760.01</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>154750</v>
-      </c>
-      <c r="E7">
-        <v>-154750</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>190000</v>
-      </c>
-      <c r="E8">
-        <v>-101711.82</v>
-      </c>
-      <c r="F8">
-        <v>88288.18</v>
-      </c>
-      <c r="G8">
-        <v>88288.18</v>
-      </c>
-      <c r="H8">
-        <v>88288.18</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +179,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_diciembre_2020/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +221,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,24 +273,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -278,14 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +598,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -589,38 +611,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -681,71 +703,73 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44105</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>44196</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>44206</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>44206</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -757,17 +781,19 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,32 +862,177 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>29464300</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9500937.799999997</v>
+      </c>
+      <c r="F4" s="3">
+        <v>38965237.799999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>38965237.799999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>38965237.799999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>446688</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1764496.92</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2211184.92</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2211184.92</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2711184.92</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8823562</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-3531843.7199999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5291718.28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5291718.28</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5205483.99</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3">
+        <v>241025</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-241025</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F8" s="4">
+        <v>55100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>55100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>55100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -179,29 +179,14 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_diciembre_2020/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de abril del año en curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -221,14 +206,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,9 +250,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -288,26 +264,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,11 +573,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.85546875" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -627,7 +602,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -638,11 +613,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -744,32 +719,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="H8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -781,19 +754,17 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,151 +861,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3">
-        <v>29464300</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9500937.799999997</v>
-      </c>
-      <c r="F4" s="3">
-        <v>38965237.799999997</v>
-      </c>
-      <c r="G4" s="3">
-        <v>38965237.799999997</v>
-      </c>
-      <c r="H4" s="3">
-        <v>38965237.799999997</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3">
-        <v>446688</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1764496.92</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2211184.92</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2211184.92</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2711184.92</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8823562</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-3531843.7199999997</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5291718.28</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5291718.28</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5205483.99</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3">
-        <v>241025</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-241025</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>55100</v>
-      </c>
-      <c r="F8" s="4">
-        <v>55100</v>
-      </c>
-      <c r="G8" s="4">
-        <v>55100</v>
-      </c>
-      <c r="H8" s="4">
-        <v>55100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +179,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de abril del año en curso</t>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_marzo_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +221,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -276,13 +300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,7 +592,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,11 +601,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -602,7 +630,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -648,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -719,7 +747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
@@ -729,8 +757,12 @@
       <c r="C8" s="4">
         <v>44286</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
@@ -740,9 +772,7 @@
       <c r="H8" s="4">
         <v>44298</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -754,17 +784,20 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A9" sqref="A9:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +894,151 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>23851149</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-410868.67000000179</v>
+      </c>
+      <c r="F4" s="3">
+        <v>23440280.329999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23440280.329999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>23440280.329999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>229337</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-141281.91999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>88055.08</v>
+      </c>
+      <c r="G5" s="3">
+        <v>88055.08</v>
+      </c>
+      <c r="H5" s="3">
+        <v>73055.08</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2892272</v>
+      </c>
+      <c r="E6" s="3">
+        <v>488301.91999999993</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3380573.92</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3380573.92</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3198196.84</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -179,29 +179,14 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_marzo_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de julio del año en curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -221,14 +206,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,9 +250,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -285,10 +261,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,12 +284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,11 +576,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -614,38 +589,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -676,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -706,17 +681,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -747,32 +722,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -784,20 +757,17 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD80"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,151 +864,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3">
-        <v>23851149</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-410868.67000000179</v>
-      </c>
-      <c r="F4" s="3">
-        <v>23440280.329999998</v>
-      </c>
-      <c r="G4" s="3">
-        <v>23440280.329999998</v>
-      </c>
-      <c r="H4" s="3">
-        <v>23440280.329999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3">
-        <v>229337</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-141281.91999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>88055.08</v>
-      </c>
-      <c r="G5" s="3">
-        <v>88055.08</v>
-      </c>
-      <c r="H5" s="3">
-        <v>73055.08</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2892272</v>
-      </c>
-      <c r="E6" s="3">
-        <v>488301.91999999993</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3380573.92</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3380573.92</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3198196.84</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3">
-        <v>22400</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3">
-        <v>130000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>130000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>130000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>130000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CIERRE PRESUPUESTAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +179,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de julio del año en curso</t>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_junio_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +221,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -265,27 +289,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +604,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="161.5703125" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -589,38 +617,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -681,17 +709,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -722,8 +750,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
@@ -732,9 +760,13 @@
       <c r="C8" s="3">
         <v>44377</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="3">
@@ -743,9 +775,7 @@
       <c r="H8" s="3">
         <v>44386</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -757,17 +787,19 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +896,151 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8">
+        <v>48094261</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-953512.67000000179</v>
+      </c>
+      <c r="F4" s="8">
+        <v>47140748.329999998</v>
+      </c>
+      <c r="G4" s="8">
+        <v>47140748.329999998</v>
+      </c>
+      <c r="H4" s="8">
+        <v>47140748.329999998</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1410534</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-957349.91999999993</v>
+      </c>
+      <c r="F5" s="8">
+        <v>453184.08</v>
+      </c>
+      <c r="G5" s="8">
+        <v>453184.08</v>
+      </c>
+      <c r="H5" s="8">
+        <v>453184.08</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6392543</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-1945783.79</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4446759.21</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4446759.21</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4446759.21</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8">
+        <v>53200</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-42006</v>
+      </c>
+      <c r="F7" s="8">
+        <v>11194</v>
+      </c>
+      <c r="G7" s="8">
+        <v>11194</v>
+      </c>
+      <c r="H7" s="8">
+        <v>11194</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8">
+        <v>736000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-537232</v>
+      </c>
+      <c r="F8" s="8">
+        <v>198768</v>
+      </c>
+      <c r="G8" s="8">
+        <v>198768</v>
+      </c>
+      <c r="H8" s="8">
+        <v>198768</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CIERRE PRESUPUESTAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -179,29 +179,14 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_junio_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 27 de octubre del año en curso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -221,14 +206,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,11 +250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,35 +261,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,11 +570,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="161.5703125" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -617,38 +583,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -709,17 +675,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -750,32 +716,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -787,19 +751,17 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,151 +858,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8">
-        <v>48094261</v>
-      </c>
-      <c r="E4" s="8">
-        <v>-953512.67000000179</v>
-      </c>
-      <c r="F4" s="8">
-        <v>47140748.329999998</v>
-      </c>
-      <c r="G4" s="8">
-        <v>47140748.329999998</v>
-      </c>
-      <c r="H4" s="8">
-        <v>47140748.329999998</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1410534</v>
-      </c>
-      <c r="E5" s="8">
-        <v>-957349.91999999993</v>
-      </c>
-      <c r="F5" s="8">
-        <v>453184.08</v>
-      </c>
-      <c r="G5" s="8">
-        <v>453184.08</v>
-      </c>
-      <c r="H5" s="8">
-        <v>453184.08</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8">
-        <v>6392543</v>
-      </c>
-      <c r="E6" s="8">
-        <v>-1945783.79</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4446759.21</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4446759.21</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4446759.21</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="8">
-        <v>53200</v>
-      </c>
-      <c r="E7" s="8">
-        <v>-42006</v>
-      </c>
-      <c r="F7" s="8">
-        <v>11194</v>
-      </c>
-      <c r="G7" s="8">
-        <v>11194</v>
-      </c>
-      <c r="H7" s="8">
-        <v>11194</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="8">
-        <v>736000</v>
-      </c>
-      <c r="E8" s="8">
-        <v>-537232</v>
-      </c>
-      <c r="F8" s="8">
-        <v>198768</v>
-      </c>
-      <c r="G8" s="8">
-        <v>198768</v>
-      </c>
-      <c r="H8" s="8">
-        <v>198768</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -278,6 +278,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +605,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -610,11 +616,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP Fracciones con Cierre Presupuestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +179,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 27 de octubre del año en curso.</t>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_septiembre_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +221,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -261,6 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -269,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -284,8 +306,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +602,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="111" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -605,7 +631,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -651,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -722,30 +748,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>44378</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>44469</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>44480</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>44480</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -757,29 +785,32 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,6 +895,151 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>75416997</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-2042402.1200000048</v>
+      </c>
+      <c r="F4" s="4">
+        <v>73374594.879999995</v>
+      </c>
+      <c r="G4" s="4">
+        <v>73374594.879999995</v>
+      </c>
+      <c r="H4" s="4">
+        <v>73374594.879999995</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1715034</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-977449.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>737584.7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>737584.7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>737584.7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9157271</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1890478.13</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7266792.8700000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7266792.8700000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7258793.1300000008</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>84000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-72806</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11194</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11194</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11194</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <v>736000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-537232</v>
+      </c>
+      <c r="F8" s="4">
+        <v>198768</v>
+      </c>
+      <c r="G8" s="4">
+        <v>198768</v>
+      </c>
+      <c r="H8" s="4">
+        <v>198768</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP Fracciones con Cierre Presupuestal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -179,29 +179,14 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_septiembre_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -214,21 +199,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,11 +248,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,7 +259,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -295,23 +268,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,11 +574,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="111" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -631,7 +603,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -677,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -748,32 +720,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5">
-        <v>44480</v>
-      </c>
-      <c r="H8" s="5">
-        <v>44480</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -785,32 +755,27 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -895,151 +860,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4">
-        <v>75416997</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-2042402.1200000048</v>
-      </c>
-      <c r="F4" s="4">
-        <v>73374594.879999995</v>
-      </c>
-      <c r="G4" s="4">
-        <v>73374594.879999995</v>
-      </c>
-      <c r="H4" s="4">
-        <v>73374594.879999995</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1715034</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-977449.3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>737584.7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>737584.7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>737584.7</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9157271</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1890478.13</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7266792.8700000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7266792.8700000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7258793.1300000008</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4">
-        <v>84000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-72806</v>
-      </c>
-      <c r="F7" s="4">
-        <v>11194</v>
-      </c>
-      <c r="G7" s="4">
-        <v>11194</v>
-      </c>
-      <c r="H7" s="4">
-        <v>11194</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4">
-        <v>736000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-537232</v>
-      </c>
-      <c r="F8" s="4">
-        <v>198768</v>
-      </c>
-      <c r="G8" s="4">
-        <v>198768</v>
-      </c>
-      <c r="H8" s="4">
-        <v>198768</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -179,14 +174,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/04.estadopresupuestoegresos-cap-gto.pdf</t>
+  </si>
+  <si>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,11 +209,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -248,8 +268,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -266,9 +287,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,8 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,11 +596,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.140625" customWidth="1"/>
+    <col min="9" max="9" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -587,38 +609,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -679,19 +701,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -720,30 +742,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="H8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>44659</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -755,22 +779,27 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -860,6 +889,151 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3">
+        <v>27987535</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-4503490.5100000016</v>
+      </c>
+      <c r="F4" s="3">
+        <v>23484044.489999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23484044.489999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>23484044.489999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>574380</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-414231.06</v>
+      </c>
+      <c r="F5" s="3">
+        <v>160148.94</v>
+      </c>
+      <c r="G5" s="3">
+        <v>160148.94</v>
+      </c>
+      <c r="H5" s="3">
+        <v>160148.94</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2685826</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-687843.44</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1997982.56</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1997982.56</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1997982.56</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1376483</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1376483</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>425330</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-425330</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>46582</t>
   </si>
@@ -174,22 +180,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/04.estadopresupuestoegresos-cap-gto.pdf</t>
-  </si>
-  <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+    <t>La información solicitada se entregará a más tardar el día 30 de julio del año en curso en terminos del art. 58 de la Ley General de Contabilidad Gubernamental.</t>
   </si>
 </sst>
 </file>
@@ -218,9 +209,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,10 +257,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -286,26 +284,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,39 +327,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,142 +438,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -586,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,11 +615,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.7109375" customWidth="1"/>
+    <col min="9" max="9" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -609,38 +628,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -701,19 +720,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -742,32 +761,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44753</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44753</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -779,27 +796,22 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -889,151 +901,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3">
-        <v>27987535</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-4503490.5100000016</v>
-      </c>
-      <c r="F4" s="3">
-        <v>23484044.489999998</v>
-      </c>
-      <c r="G4" s="3">
-        <v>23484044.489999998</v>
-      </c>
-      <c r="H4" s="3">
-        <v>23484044.489999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>574380</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-414231.06</v>
-      </c>
-      <c r="F5" s="3">
-        <v>160148.94</v>
-      </c>
-      <c r="G5" s="3">
-        <v>160148.94</v>
-      </c>
-      <c r="H5" s="3">
-        <v>160148.94</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2685826</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-687843.44</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1997982.56</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1997982.56</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1997982.56</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1376483</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1376483</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>425330</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-425330</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -180,7 +174,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>La información solicitada se entregará a más tardar el día 30 de julio del año en curso en terminos del art. 58 de la Ley General de Contabilidad Gubernamental.</t>
+    <t>La información solicitada se entregará a más tardar el día 30 de julio del años en curso en terminos del art.58 de la Ley General de Contabilidad Gubernamental.</t>
   </si>
 </sst>
 </file>
@@ -285,9 +279,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -298,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +600,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +613,7 @@
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -628,38 +622,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -720,17 +714,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -782,7 +776,7 @@
       <c r="H8" s="4">
         <v>44753</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="11" t="s">
         <v>52</v>
       </c>
     </row>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP Cierre Presupuestal 2do Tri 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>46582</t>
   </si>
@@ -174,14 +191,29 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>La información solicitada se entregará a más tardar el día 30 de julio del años en curso en terminos del art.58 de la Ley General de Contabilidad Gubernamental.</t>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencia, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,20 +291,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -284,17 +316,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,11 +639,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.5703125" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -638,7 +668,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -649,11 +679,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -755,7 +785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -765,8 +795,12 @@
       <c r="C8" s="4">
         <v>44742</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
@@ -776,9 +810,7 @@
       <c r="H8" s="4">
         <v>44753</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -790,22 +822,26 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -895,6 +931,157 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55738372</v>
+      </c>
+      <c r="E4" s="3">
+        <f>F4-D4</f>
+        <v>-7835940.0700000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>47902431.93</v>
+      </c>
+      <c r="G4" s="3">
+        <v>47902431.93</v>
+      </c>
+      <c r="H4" s="3">
+        <v>47902431.93</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2078468</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E8" si="0">F5-D5</f>
+        <v>-1563478.94</v>
+      </c>
+      <c r="F5" s="3">
+        <v>514989.06</v>
+      </c>
+      <c r="G5" s="3">
+        <v>514989.06</v>
+      </c>
+      <c r="H5" s="3">
+        <v>514989.06</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7114245</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1509775.1500000004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5604469.8499999996</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5604469.8499999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5604469.8499999996</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3">
+        <f>4544024.58-1711058.58</f>
+        <v>2832966</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>-2832966</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1675330</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>-1455330</v>
+      </c>
+      <c r="F8" s="3">
+        <v>220000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>220000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>220000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP Cierre Presupuestal 2do Tri 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +20,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -206,14 +202,14 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,13 +229,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -294,9 +283,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -310,16 +299,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -351,39 +336,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,166 +447,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -629,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD115"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +600,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.5703125" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
@@ -652,38 +613,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -744,17 +705,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -785,30 +746,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="H8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -833,15 +794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -932,153 +893,147 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3">
-        <v>55738372</v>
-      </c>
-      <c r="E4" s="3">
-        <f>F4-D4</f>
-        <v>-7835940.0700000003</v>
-      </c>
-      <c r="F4" s="3">
-        <v>47902431.93</v>
-      </c>
-      <c r="G4" s="3">
-        <v>47902431.93</v>
-      </c>
-      <c r="H4" s="3">
-        <v>47902431.93</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="D4">
+        <v>85954368</v>
+      </c>
+      <c r="E4">
+        <v>-11320981.989999995</v>
+      </c>
+      <c r="F4">
+        <v>74633386.010000005</v>
+      </c>
+      <c r="G4">
+        <v>74633386.010000005</v>
+      </c>
+      <c r="H4">
+        <v>74633386.010000005</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3">
-        <v>2078468</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E8" si="0">F5-D5</f>
-        <v>-1563478.94</v>
-      </c>
-      <c r="F5" s="3">
-        <v>514989.06</v>
-      </c>
-      <c r="G5" s="3">
-        <v>514989.06</v>
-      </c>
-      <c r="H5" s="3">
-        <v>514989.06</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="D5">
+        <v>2459354</v>
+      </c>
+      <c r="E5">
+        <v>-877326.72</v>
+      </c>
+      <c r="F5">
+        <v>1582027.28</v>
+      </c>
+      <c r="G5">
+        <v>1582027.28</v>
+      </c>
+      <c r="H5">
+        <v>1582027.28</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>3000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3">
-        <v>7114245</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>-1509775.1500000004</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5604469.8499999996</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5604469.8499999996</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5604469.8499999996</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="D6">
+        <v>10194519</v>
+      </c>
+      <c r="E6">
+        <v>-1620614.7699999996</v>
+      </c>
+      <c r="F6">
+        <v>8573904.2300000004</v>
+      </c>
+      <c r="G6">
+        <v>8573904.2300000004</v>
+      </c>
+      <c r="H6">
+        <v>8573904.2300000004</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>4000</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3">
-        <f>4544024.58-1711058.58</f>
-        <v>2832966</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>-2832966</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7">
+        <v>390000</v>
+      </c>
+      <c r="E7">
+        <v>-390000</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>5000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1675330</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>-1455330</v>
-      </c>
-      <c r="F8" s="3">
-        <v>220000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>220000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>220000</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="E8">
+        <v>-1168634.83</v>
+      </c>
+      <c r="F8">
+        <v>506695.17</v>
+      </c>
+      <c r="G8">
+        <v>506695.17</v>
+      </c>
+      <c r="H8">
+        <v>506695.17</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -280,12 +280,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -299,13 +308,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,9 +617,9 @@
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="85.140625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -613,38 +628,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -705,17 +720,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -759,7 +774,7 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -787,6 +802,7 @@
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -202,14 +202,14 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_septiembre_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -229,6 +229,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -292,9 +299,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -308,19 +315,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -351,39 +362,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,142 +473,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -605,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,11 +650,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.140625" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -644,7 +679,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -655,11 +690,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -761,30 +796,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="H8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -802,7 +837,6 @@
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -811,19 +845,19 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,147 +943,168 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4">
-        <v>85954368</v>
-      </c>
-      <c r="E4">
-        <v>-11320981.989999995</v>
-      </c>
-      <c r="F4">
-        <v>74633386.010000005</v>
-      </c>
-      <c r="G4">
-        <v>74633386.010000005</v>
-      </c>
-      <c r="H4">
-        <v>74633386.010000005</v>
-      </c>
-      <c r="I4">
+      <c r="D4" s="3">
+        <v>114070849</v>
+      </c>
+      <c r="E4" s="3">
+        <f>F4-D4</f>
+        <v>3267548.7699999958</v>
+      </c>
+      <c r="F4" s="3">
+        <f>117338397.77</f>
+        <v>117338397.77</v>
+      </c>
+      <c r="G4" s="3">
+        <f>117338397.77</f>
+        <v>117338397.77</v>
+      </c>
+      <c r="H4" s="3">
+        <f>113253685.33</f>
+        <v>113253685.33</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2000</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>2459354</v>
-      </c>
-      <c r="E5">
-        <v>-877326.72</v>
-      </c>
-      <c r="F5">
-        <v>1582027.28</v>
-      </c>
-      <c r="G5">
-        <v>1582027.28</v>
-      </c>
-      <c r="H5">
-        <v>1582027.28</v>
-      </c>
-      <c r="I5">
+      <c r="D5" s="3">
+        <v>2750484</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E6" si="0">F5-D5</f>
+        <v>2191195.2300000004</v>
+      </c>
+      <c r="F5" s="3">
+        <f>4941679.23</f>
+        <v>4941679.2300000004</v>
+      </c>
+      <c r="G5" s="3">
+        <f>4941679.23</f>
+        <v>4941679.2300000004</v>
+      </c>
+      <c r="H5" s="3">
+        <f>2044534.17</f>
+        <v>2044534.17</v>
+      </c>
+      <c r="I5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>3000</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6">
-        <v>10194519</v>
-      </c>
-      <c r="E6">
-        <v>-1620614.7699999996</v>
-      </c>
-      <c r="F6">
-        <v>8573904.2300000004</v>
-      </c>
-      <c r="G6">
-        <v>8573904.2300000004</v>
-      </c>
-      <c r="H6">
-        <v>8573904.2300000004</v>
-      </c>
-      <c r="I6">
+      <c r="D6" s="3">
+        <v>16440244</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>3696054.5700000003</v>
+      </c>
+      <c r="F6" s="3">
+        <f>20136298.57</f>
+        <v>20136298.57</v>
+      </c>
+      <c r="G6" s="3">
+        <f>20136298.57</f>
+        <v>20136298.57</v>
+      </c>
+      <c r="H6" s="3">
+        <f>16583082.22</f>
+        <v>16583082.220000001</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D7">
-        <v>390000</v>
-      </c>
-      <c r="E7">
-        <v>-390000</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="3">
+        <f>625000+1711058.58</f>
+        <v>2336058.58</v>
+      </c>
+      <c r="E7" s="3">
+        <f>F7-D7</f>
+        <v>-546341.60000000009</v>
+      </c>
+      <c r="F7" s="3">
+        <f>83252+1706464.98</f>
+        <v>1789716.98</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:H7" si="1">83252+1706464.98</f>
+        <v>1789716.98</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1789716.98</v>
+      </c>
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>5000</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1675330</v>
       </c>
-      <c r="E8">
-        <v>-1168634.83</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3">
+        <f>F8-D8</f>
+        <v>-686365.57</v>
+      </c>
+      <c r="F8" s="3">
+        <f>988964.43</f>
+        <v>988964.43</v>
+      </c>
+      <c r="G8" s="3">
+        <f>988964.43</f>
+        <v>988964.43</v>
+      </c>
+      <c r="H8" s="3">
+        <f>506695.17</f>
         <v>506695.17</v>
       </c>
-      <c r="G8">
-        <v>506695.17</v>
-      </c>
-      <c r="H8">
-        <v>506695.17</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393859" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -202,7 +202,7 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/04.estadoeresupuestoegresos-cap-gto.pdf</t>
   </si>
 </sst>
 </file>
@@ -321,14 +321,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,11 +650,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" customWidth="1"/>
+    <col min="5" max="5" width="76.5703125" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -690,11 +690,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -798,28 +798,28 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="H8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -845,19 +845,19 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -953,23 +953,22 @@
         <v>52</v>
       </c>
       <c r="D4" s="3">
-        <v>114070849</v>
+        <v>24367000</v>
       </c>
       <c r="E4" s="3">
-        <f>F4-D4</f>
-        <v>3267548.7699999958</v>
+        <v>-600396.55999999866</v>
       </c>
       <c r="F4" s="3">
-        <f>117338397.77</f>
-        <v>117338397.77</v>
+        <f>23766603.44</f>
+        <v>23766603.440000001</v>
       </c>
       <c r="G4" s="3">
-        <f>117338397.77</f>
-        <v>117338397.77</v>
+        <f>23766603.44</f>
+        <v>23766603.440000001</v>
       </c>
       <c r="H4" s="3">
-        <f>113253685.33</f>
-        <v>113253685.33</v>
+        <f>23766603.44</f>
+        <v>23766603.440000001</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -986,23 +985,22 @@
         <v>53</v>
       </c>
       <c r="D5" s="3">
-        <v>2750484</v>
+        <v>1552987</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E6" si="0">F5-D5</f>
-        <v>2191195.2300000004</v>
+        <v>-1276163.48</v>
       </c>
       <c r="F5" s="3">
-        <f>4941679.23</f>
-        <v>4941679.2300000004</v>
+        <f>276823.52</f>
+        <v>276823.52</v>
       </c>
       <c r="G5" s="3">
-        <f>4941679.23</f>
-        <v>4941679.2300000004</v>
+        <f>276823.52</f>
+        <v>276823.52</v>
       </c>
       <c r="H5" s="3">
-        <f>2044534.17</f>
-        <v>2044534.17</v>
+        <f>242320.78</f>
+        <v>242320.78</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1019,23 +1017,22 @@
         <v>54</v>
       </c>
       <c r="D6" s="3">
-        <v>16440244</v>
+        <v>3286851</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>3696054.5700000003</v>
+        <v>-1481970.87</v>
       </c>
       <c r="F6" s="3">
-        <f>20136298.57</f>
-        <v>20136298.57</v>
+        <f>1804880.13</f>
+        <v>1804880.13</v>
       </c>
       <c r="G6" s="3">
-        <f>20136298.57</f>
-        <v>20136298.57</v>
+        <f>1804880.13</f>
+        <v>1804880.13</v>
       </c>
       <c r="H6" s="3">
-        <f>16583082.22</f>
-        <v>16583082.220000001</v>
+        <f>1789150.53</f>
+        <v>1789150.53</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1052,24 +1049,21 @@
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <f>625000+1711058.58</f>
-        <v>2336058.58</v>
+        <v>1336483</v>
       </c>
       <c r="E7" s="3">
-        <f>F7-D7</f>
-        <v>-546341.60000000009</v>
+        <v>-1334783</v>
       </c>
       <c r="F7" s="3">
-        <f>83252+1706464.98</f>
-        <v>1789716.98</v>
+        <f>1700</f>
+        <v>1700</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:H7" si="1">83252+1706464.98</f>
-        <v>1789716.98</v>
+        <f>1700</f>
+        <v>1700</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>1789716.98</v>
+        <v>1700</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1086,23 +1080,20 @@
         <v>56</v>
       </c>
       <c r="D8" s="3">
-        <v>1675330</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f>F8-D8</f>
-        <v>-686365.57</v>
+        <f t="shared" ref="E8" si="0">D8-F8</f>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>988964.43</f>
-        <v>988964.43</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>988964.43</f>
-        <v>988964.43</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>506695.17</f>
-        <v>506695.17</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>

--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\UPP Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116161A1-35DD-4ADD-8355-7B2163B78122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -202,14 +208,14 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/04.estadoeresupuestoegresos-cap-gto.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_junio_2023/04.estadoeresupuestoegresos-cap-gto.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -229,13 +235,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -264,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,19 +286,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -315,23 +305,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -362,44 +352,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -427,14 +417,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -462,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,175 +497,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,11 +650,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.5703125" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -663,38 +663,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -755,17 +755,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -796,32 +796,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="H8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>45117</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -834,18 +834,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{D0AE098F-FF40-4880-A13C-4D09B3632479}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,26 +949,26 @@
       <c r="B4" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="3">
-        <v>24367000</v>
+        <v>54314234</v>
       </c>
       <c r="E4" s="3">
-        <v>-600396.55999999866</v>
+        <v>-5286081.7700000033</v>
       </c>
       <c r="F4" s="3">
-        <f>23766603.44</f>
-        <v>23766603.440000001</v>
+        <f>49028152.23</f>
+        <v>49028152.229999997</v>
       </c>
       <c r="G4" s="3">
-        <f>23766603.44</f>
-        <v>23766603.440000001</v>
+        <f>49028152.23</f>
+        <v>49028152.229999997</v>
       </c>
       <c r="H4" s="3">
-        <f>23766603.44</f>
-        <v>23766603.440000001</v>
+        <f>49028152.23</f>
+        <v>49028152.229999997</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -981,26 +981,26 @@
       <c r="B5" s="3">
         <v>2000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3">
-        <v>1552987</v>
+        <v>2823718</v>
       </c>
       <c r="E5" s="3">
-        <v>-1276163.48</v>
+        <v>-1860051.25</v>
       </c>
       <c r="F5" s="3">
-        <f>276823.52</f>
-        <v>276823.52</v>
+        <f>963666.75</f>
+        <v>963666.75</v>
       </c>
       <c r="G5" s="3">
-        <f>276823.52</f>
-        <v>276823.52</v>
+        <f>963666.75</f>
+        <v>963666.75</v>
       </c>
       <c r="H5" s="3">
-        <f>242320.78</f>
-        <v>242320.78</v>
+        <f>941173.79</f>
+        <v>941173.79</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1013,26 +1013,26 @@
       <c r="B6" s="3">
         <v>3000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="3">
-        <v>3286851</v>
+        <v>8844084</v>
       </c>
       <c r="E6" s="3">
-        <v>-1481970.87</v>
+        <v>-3342282.58</v>
       </c>
       <c r="F6" s="3">
-        <f>1804880.13</f>
-        <v>1804880.13</v>
+        <f>5501801.42</f>
+        <v>5501801.4199999999</v>
       </c>
       <c r="G6" s="3">
-        <f>1804880.13</f>
-        <v>1804880.13</v>
+        <f>5501801.42</f>
+        <v>5501801.4199999999</v>
       </c>
       <c r="H6" s="3">
-        <f>1789150.53</f>
-        <v>1789150.53</v>
+        <f>5426191.15</f>
+        <v>5426191.1500000004</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1045,25 +1045,26 @@
       <c r="B7" s="3">
         <v>4000</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <v>1336483</v>
+        <v>2662966</v>
       </c>
       <c r="E7" s="3">
-        <v>-1334783</v>
+        <v>-2619646.13</v>
       </c>
       <c r="F7" s="3">
-        <f>1700</f>
-        <v>1700</v>
+        <f>43319.87</f>
+        <v>43319.87</v>
       </c>
       <c r="G7" s="3">
-        <f>1700</f>
-        <v>1700</v>
+        <f>43319.87</f>
+        <v>43319.87</v>
       </c>
       <c r="H7" s="3">
-        <v>1700</v>
+        <f>43319.87</f>
+        <v>43319.87</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1076,24 +1077,25 @@
       <c r="B8" s="3">
         <v>5000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1172000</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8" si="0">D8-F8</f>
-        <v>0</v>
+        <v>-1129112.2</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <f>42887.8</f>
+        <v>42887.8</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <f>42887.8</f>
+        <v>42887.8</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>34999</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
